--- a/Lectures/Lecture 17/Oakdale.xlsx
+++ b/Lectures/Lecture 17/Oakdale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanie/UNC-chapel hill/Fall2019/STOR305/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735AE31-0B2F-3443-82EC-70160742B606}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA14FD-08F4-47EC-8CFC-85696733A217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="460" windowWidth="19500" windowHeight="15160" activeTab="2" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority 1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,7 +132,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -495,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -548,6 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,22 +867,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B376D-75FF-FE46-ACCE-7B534CA7A12F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -915,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -952,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -989,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1094,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1105,7 +1108,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1126,7 +1129,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1151,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1192,7 +1195,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
@@ -1235,12 +1238,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1258,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -1308,7 +1311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -1333,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -1358,7 +1361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
         <v>30152</v>
@@ -1383,7 +1386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
         <v>770</v>
@@ -1408,7 +1411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
         <v>1130</v>
@@ -1433,7 +1436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
         <v>1860</v>
@@ -1458,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
         <v>1240</v>
@@ -1483,7 +1486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
         <v>1000</v>
@@ -1498,7 +1501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
         <v>300</v>
@@ -1513,7 +1516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
         <v>450</v>
@@ -1528,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
         <v>800</v>
@@ -1543,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
         <v>1050</v>
@@ -1558,7 +1561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
         <v>400</v>
@@ -1573,7 +1576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
         <v>500</v>
@@ -1588,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
         <v>500</v>
@@ -1603,17 +1606,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="50">
         <f>SUM(B20:C23)</f>
         <v>1.7097434579227411E-13</v>
@@ -1632,19 +1635,19 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -1870,7 +1873,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1894,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1916,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1938,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
@@ -2000,12 +2003,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2023,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -2048,7 +2051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -2073,7 +2076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -2098,7 +2101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -2123,7 +2126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
         <v>30000</v>
@@ -2148,7 +2151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
         <v>510</v>
@@ -2173,7 +2176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
         <v>1120</v>
@@ -2198,7 +2201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
         <v>2120</v>
@@ -2223,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
         <v>1250</v>
@@ -2248,7 +2251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
         <v>1000</v>
@@ -2263,7 +2266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
         <v>300</v>
@@ -2278,7 +2281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
         <v>450</v>
@@ -2293,7 +2296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
         <v>800</v>
@@ -2308,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
         <v>1050</v>
@@ -2323,7 +2326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
         <v>400</v>
@@ -2338,7 +2341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
         <v>500</v>
@@ -2353,7 +2356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
         <v>500</v>
@@ -2368,7 +2371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D37" s="51">
         <f>SUM(B20:C23)</f>
         <v>1.2789769243681803E-13</v>
@@ -2383,17 +2386,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <f>C24</f>
         <v>0</v>
@@ -2408,21 +2411,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92812E0B-DC34-904D-8CB1-F97FCF687285}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="7" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
@@ -2634,7 +2637,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -2648,7 +2651,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2672,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2713,7 +2716,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2735,7 +2738,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
         <v>9</v>
       </c>
@@ -2778,12 +2781,12 @@
         <v>545.59999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -2801,7 +2804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <f>0.4*B8-0.6*B16</f>
         <v>0</v>
@@ -2826,7 +2829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <f>0.4*C8-0.6*C16</f>
         <v>0</v>
@@ -2851,7 +2854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <f>0.4*D8-0.6*D16</f>
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <f>0.4*E8-0.6*E16</f>
         <v>0</v>
@@ -2901,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <f>SUMPRODUCT(B4:E7,J4:M7)+SUMPRODUCT(B12:E15,J4:M7)</f>
         <v>30000.000000000004</v>
@@ -2926,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <f>B8+B16</f>
         <v>1363.9999999999995</v>
@@ -2951,7 +2954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <f>C8+C16</f>
         <v>1136</v>
@@ -2976,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <f>D8+D16</f>
         <v>1136.0000000000005</v>
@@ -3001,7 +3004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <f>E8+E16</f>
         <v>1364</v>
@@ -3026,7 +3029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="42">
         <f>F4</f>
         <v>1000</v>
@@ -3041,7 +3044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="44">
         <f>F12</f>
         <v>299.99999999999994</v>
@@ -3056,7 +3059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="44">
         <f>F5</f>
         <v>449.99999999999994</v>
@@ -3071,7 +3074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="44">
         <f>F13</f>
         <v>800</v>
@@ -3086,7 +3089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D33" s="44">
         <f>F6</f>
         <v>1050</v>
@@ -3101,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D34" s="44">
         <f>F14</f>
         <v>400</v>
@@ -3112,11 +3115,11 @@
       <c r="F34" s="44">
         <v>400</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D35" s="44">
         <f>F7</f>
         <v>500.00000000000006</v>
@@ -3131,7 +3134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D36" s="46">
         <f>F15</f>
         <v>500</v>
@@ -3146,7 +3149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D37" s="51">
         <f>SUM(B20:C23)</f>
         <v>-2.5243548967072378E-29</v>
@@ -3161,7 +3164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D38" s="51">
         <f>C24</f>
         <v>0</v>
@@ -3176,17 +3179,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="50">
         <f>SUM(B25:C28)</f>
         <v>1.4210854715202004E-13</v>

--- a/Lectures/Lecture 17/Oakdale.xlsx
+++ b/Lectures/Lecture 17/Oakdale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA14FD-08F4-47EC-8CFC-85696733A217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CBB7F4-F6AA-48A2-8DF8-9255F420B62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="2" xr2:uid="{1C00D6E7-DB22-9C48-A1F3-760AD5C5C80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Priority 1" sheetId="1" r:id="rId1"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B376D-75FF-FE46-ACCE-7B534CA7A12F}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A29" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B95071F-83FE-7843-ADC1-8CAFBC53DC52}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A29" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2380,7 +2380,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="49">
-        <v>0</v>
+        <v>1.7097434579227411E-13</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>22</v>
@@ -2411,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92812E0B-DC34-904D-8CB1-F97FCF687285}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
